--- a/xlsx/rectangular_cubic.xlsx
+++ b/xlsx/rectangular_cubic.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujc/code/hrrk-plate/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\code\hrrk-plate\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B642629-F17E-7148-AA24-36AAAC0DAC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="5" xr2:uid="{D4E3DD03-E574-2D45-87B1-2218C6EC4385}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="51195" windowHeight="26595" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="h" sheetId="5" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="H3" sheetId="4" r:id="rId5"/>
     <sheet name="time" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>log₁₀h</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,14 +76,70 @@
   </si>
   <si>
     <t>GI13-Nitsche</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assembly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assembly Γᵍ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shape functions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>shape functions Γ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ᵍ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GI3-Penalty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GI3-Nitsche</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GI13-Penalty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GI13-Nitsche</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RKGSI-Penalty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RKGSI-Nitsche</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RKGSI-HR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,6 +162,13 @@
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -460,14 +522,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA6FC3E-3AB0-FC44-B038-225E15A8B2DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -526,19 +588,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5357BA77-AC59-9943-8B53-4516BD1B37CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
   </cols>
@@ -576,22 +638,22 @@
         <v>-0.97238190743301056</v>
       </c>
       <c r="B2">
-        <v>-0.97168459594836687</v>
+        <v>-0.96609904762535492</v>
       </c>
       <c r="C2">
         <v>-0.9693362270952971</v>
       </c>
       <c r="D2">
-        <v>-0.96863611909462555</v>
+        <v>-0.9630367811888042</v>
       </c>
       <c r="E2">
-        <v>-3.7303760553531595</v>
+        <v>-3.7303760553497414</v>
       </c>
       <c r="F2">
-        <v>-3.7513003229136515</v>
+        <v>-4.0158608784440561</v>
       </c>
       <c r="G2">
-        <v>-3.9389284162002638</v>
+        <v>-3.938928416202776</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -599,22 +661,22 @@
         <v>-1.5908471147766343</v>
       </c>
       <c r="B3">
-        <v>-1.5907963758905415</v>
+        <v>-1.5886032352434194</v>
       </c>
       <c r="C3">
         <v>-1.5882507625600175</v>
       </c>
       <c r="D3">
-        <v>-1.5882000963555754</v>
+        <v>-1.5860068073634104</v>
       </c>
       <c r="E3">
-        <v>-5.1604928657913254</v>
+        <v>-5.1604928659050904</v>
       </c>
       <c r="F3">
-        <v>-5.2165616035314564</v>
+        <v>-5.483114463207909</v>
       </c>
       <c r="G3">
-        <v>-5.4262576884251459</v>
+        <v>-5.4262576904402344</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -622,22 +684,22 @@
         <v>-2.2074923612876871</v>
       </c>
       <c r="B4">
-        <v>-2.2084116858892555</v>
+        <v>-2.2075468084649867</v>
       </c>
       <c r="C4">
         <v>-2.2053685501607685</v>
       </c>
       <c r="D4">
-        <v>-2.2062855864365396</v>
+        <v>-2.2054231688924015</v>
       </c>
       <c r="E4">
-        <v>-6.4655497129612929</v>
+        <v>-6.4655498524640871</v>
       </c>
       <c r="F4">
-        <v>-6.4188687676979086</v>
+        <v>-6.7994988885196097</v>
       </c>
       <c r="G4">
-        <v>-6.7735352346280022</v>
+        <v>-6.7735352124646182</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -645,22 +707,22 @@
         <v>-2.8155423393030969</v>
       </c>
       <c r="B5">
-        <v>-2.8198323026249419</v>
+        <v>-2.8194972290851137</v>
       </c>
       <c r="C5">
         <v>-2.8138335411240063</v>
       </c>
       <c r="D5">
-        <v>-2.8181096799207022</v>
+        <v>-2.8177757489580717</v>
       </c>
       <c r="E5">
-        <v>-7.5917782994166974</v>
+        <v>-7.7267119902410695</v>
       </c>
       <c r="F5">
-        <v>-7.6320560843741312</v>
+        <v>-8.0190583669681281</v>
       </c>
       <c r="G5">
-        <v>-8.0080703576995322</v>
+        <v>-8.0081487347447968</v>
       </c>
     </row>
   </sheetData>
@@ -673,22 +735,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B4B654-5763-AF48-A7F2-52B537A84F56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -722,22 +784,22 @@
         <v>-0.88830930908695649</v>
       </c>
       <c r="B2">
-        <v>-0.88798893935274525</v>
+        <v>-0.88566091610472375</v>
       </c>
       <c r="C2">
         <v>-0.88532494543945339</v>
       </c>
       <c r="D2">
-        <v>-0.88497845882788606</v>
+        <v>-0.8824823523047459</v>
       </c>
       <c r="E2">
-        <v>-2.7089664411530583</v>
+        <v>-2.7089664411531134</v>
       </c>
       <c r="F2">
-        <v>-2.7146884713712063</v>
+        <v>-2.7136399866600072</v>
       </c>
       <c r="G2">
-        <v>-2.7142284910745129</v>
+        <v>-2.7142284910745813</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -745,22 +807,22 @@
         <v>-1.4971945545282224</v>
       </c>
       <c r="B3">
-        <v>-1.4971792196697262</v>
+        <v>-1.4962421925021978</v>
       </c>
       <c r="C3">
         <v>-1.4940190144036098</v>
       </c>
       <c r="D3">
-        <v>-1.4939993557710767</v>
+        <v>-1.492912978383323</v>
       </c>
       <c r="E3">
-        <v>-3.6854548961216036</v>
+        <v>-3.6854548961231886</v>
       </c>
       <c r="F3">
-        <v>-3.6903837100732022</v>
+        <v>-3.6973027702009844</v>
       </c>
       <c r="G3">
-        <v>-3.6957147695431449</v>
+        <v>-3.6957147695477137</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -768,22 +830,22 @@
         <v>-2.1374339732033558</v>
       </c>
       <c r="B4">
-        <v>-2.1377271886012648</v>
+        <v>-2.1374777007644559</v>
       </c>
       <c r="C4">
         <v>-2.1305369567434682</v>
       </c>
       <c r="D4">
-        <v>-2.1308647166189116</v>
+        <v>-2.1305803317901666</v>
       </c>
       <c r="E4">
-        <v>-4.7128386033593497</v>
+        <v>-4.7128386035000904</v>
       </c>
       <c r="F4">
-        <v>-4.7170262410948727</v>
+        <v>-4.7215812349262878</v>
       </c>
       <c r="G4">
-        <v>-4.7203781841332679</v>
+        <v>-4.7203781841212722</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -791,22 +853,22 @@
         <v>-2.7737761319470167</v>
       </c>
       <c r="B5">
-        <v>-2.7749985319670651</v>
+        <v>-2.7749135628655002</v>
       </c>
       <c r="C5">
         <v>-2.767279084969235</v>
       </c>
       <c r="D5">
-        <v>-2.7685205782815676</v>
+        <v>-2.7684332649107781</v>
       </c>
       <c r="E5">
-        <v>-5.7559947430845613</v>
+        <v>-5.7432958825054463</v>
       </c>
       <c r="F5">
-        <v>-5.7376163064885635</v>
+        <v>-5.7618456858294769</v>
       </c>
       <c r="G5">
-        <v>-5.7611574080535393</v>
+        <v>-5.7611574204571907</v>
       </c>
     </row>
   </sheetData>
@@ -816,20 +878,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECBF63E-1D42-0143-8C4B-0C51ABB95CB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
@@ -865,22 +927,22 @@
         <v>-0.805679965236614</v>
       </c>
       <c r="B2">
-        <v>-0.80524628118419139</v>
+        <v>-0.80230053052383854</v>
       </c>
       <c r="C2">
         <v>-0.8021849825207843</v>
       </c>
       <c r="D2">
-        <v>-0.80169862025060346</v>
+        <v>-0.7984566863334674</v>
       </c>
       <c r="E2">
-        <v>-1.2887962439283751</v>
+        <v>-1.2887962439283438</v>
       </c>
       <c r="F2">
-        <v>-1.2897014457858151</v>
+        <v>-1.2885723672105684</v>
       </c>
       <c r="G2">
-        <v>-1.2895118578514004</v>
+        <v>-1.2895118578513782</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -891,22 +953,22 @@
         <v>-1.1449595508921435</v>
       </c>
       <c r="B3">
-        <v>-1.1449299826778716</v>
+        <v>-1.1437356466805673</v>
       </c>
       <c r="C3">
         <v>-1.1399142370233146</v>
       </c>
       <c r="D3">
-        <v>-1.1398753833158748</v>
+        <v>-1.1383626661221047</v>
       </c>
       <c r="E3">
-        <v>-1.848939438663505</v>
+        <v>-1.8489394386632905</v>
       </c>
       <c r="F3">
-        <v>-1.8490312913888534</v>
+        <v>-1.849038743897343</v>
       </c>
       <c r="G3">
-        <v>-1.8491758677239103</v>
+        <v>-1.8491758677230481</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -917,22 +979,22 @@
         <v>-1.5455857150358956</v>
       </c>
       <c r="B4">
-        <v>-1.5457858398021551</v>
+        <v>-1.5455902782501769</v>
       </c>
       <c r="C4">
         <v>-1.5283473460783625</v>
       </c>
       <c r="D4">
-        <v>-1.5286511044694049</v>
+        <v>-1.528354396752917</v>
       </c>
       <c r="E4">
-        <v>-2.434623082552239</v>
+        <v>-2.4346230825355306</v>
       </c>
       <c r="F4">
-        <v>-2.4346655344217147</v>
+        <v>-2.4346780286322556</v>
       </c>
       <c r="G4">
-        <v>-2.4346992157934468</v>
+        <v>-2.4346992157945411</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -943,22 +1005,22 @@
         <v>-1.9739024758337695</v>
       </c>
       <c r="B5">
-        <v>-1.974142544156946</v>
+        <v>-1.9741224772390944</v>
       </c>
       <c r="C5">
         <v>-1.9499601413145031</v>
       </c>
       <c r="D5">
-        <v>-1.950385863213927</v>
+        <v>-1.9503492987954727</v>
       </c>
       <c r="E5">
-        <v>-3.0296710533840927</v>
+        <v>-3.0295838857986572</v>
       </c>
       <c r="F5">
-        <v>-3.0295232119611732</v>
+        <v>-3.0296923139953158</v>
       </c>
       <c r="G5">
-        <v>-3.0296961219404368</v>
+        <v>-3.0296961210707498</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -971,21 +1033,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F0EA69-7794-FB45-9F94-24E0DEA4E386}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="3" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1019,22 +1081,22 @@
         <v>6.2181354315879671E-2</v>
       </c>
       <c r="B2">
-        <v>6.2519652934162256E-2</v>
+        <v>6.6252481636634539E-2</v>
       </c>
       <c r="C2">
         <v>6.456496771869101E-2</v>
       </c>
       <c r="D2">
-        <v>6.4984381188440604E-2</v>
+        <v>0.0692289775321616</v>
       </c>
       <c r="E2">
-        <v>-0.98670329049201844</v>
+        <v>-0.98670329049201677</v>
       </c>
       <c r="F2">
-        <v>-0.98744178306375363</v>
+        <v>-0.98226359175649736</v>
       </c>
       <c r="G2">
-        <v>-0.98989377511579602</v>
+        <v>-0.98989377511579235</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1045,22 +1107,22 @@
         <v>0.10526553068409075</v>
       </c>
       <c r="B3">
-        <v>0.10530269021222906</v>
+        <v>0.10694960583246875</v>
       </c>
       <c r="C3">
         <v>0.10838702558236737</v>
       </c>
       <c r="D3">
-        <v>0.10843836263850544</v>
+        <v>0.11057027155711313</v>
       </c>
       <c r="E3">
-        <v>-1.4453625171748206</v>
+        <v>-1.4453625171745093</v>
       </c>
       <c r="F3">
-        <v>-1.445327459525676</v>
+        <v>-1.4423480326370464</v>
       </c>
       <c r="G3">
-        <v>-1.4461975308782906</v>
+        <v>-1.4461975308779023</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1071,22 +1133,22 @@
         <v>1.9712078988016673E-2</v>
       </c>
       <c r="B4">
-        <v>1.9438395008612001E-2</v>
+        <v>1.9701226187833272E-2</v>
       </c>
       <c r="C4">
         <v>3.9816859246365376E-2</v>
       </c>
       <c r="D4">
-        <v>3.9403030881207265E-2</v>
+        <v>0.039805087185799046</v>
       </c>
       <c r="E4">
-        <v>-1.9064207794479004</v>
+        <v>-1.9064207794460453</v>
       </c>
       <c r="F4">
-        <v>-1.9064709297316575</v>
+        <v>-1.9049089756857867</v>
       </c>
       <c r="G4">
-        <v>-1.9067993679382731</v>
+        <v>-1.9067993679376984</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1097,22 +1159,22 @@
         <v>-0.10016773269147423</v>
       </c>
       <c r="B5">
-        <v>-0.10048441019323263</v>
+        <v>-0.10045855546081878</v>
       </c>
       <c r="C5">
         <v>-7.1646822786570294E-2</v>
       </c>
       <c r="D5">
-        <v>-7.2199573179832222E-2</v>
+        <v>-7.2151923200502024E-2</v>
       </c>
       <c r="E5">
-        <v>-2.3642304607956608</v>
+        <v>-2.3622701459126145</v>
       </c>
       <c r="F5">
-        <v>-2.3619518581125583</v>
+        <v>-2.363591883599276</v>
       </c>
       <c r="G5">
-        <v>-2.3645057336236808</v>
+        <v>-2.3645057335809945</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1125,14 +1187,157 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6262C74B-E592-A94D-8C12-686BC3A6FA3C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>14.4</v>
+      </c>
+      <c r="C2">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D2">
+        <v>67.7</v>
+      </c>
+      <c r="E2">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>14.2</v>
+      </c>
+      <c r="C3">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D3">
+        <v>69.3</v>
+      </c>
+      <c r="E3">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>58.6</v>
+      </c>
+      <c r="C4">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="D4">
+        <v>291</v>
+      </c>
+      <c r="E4">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>106</v>
+      </c>
+      <c r="E5">
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D6">
+        <v>24.8</v>
+      </c>
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>25.7</v>
+      </c>
+      <c r="E7">
+        <v>0.79100000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>15.7</v>
+      </c>
+      <c r="C8">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D8">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/rectangular_cubic.xlsx
+++ b/xlsx/rectangular_cubic.xlsx
@@ -635,7 +635,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>-0.97238190743301056</v>
+        <v>-0.9686125756155047</v>
       </c>
       <c r="B2">
         <v>-0.96609904762535492</v>
@@ -644,21 +644,21 @@
         <v>-0.9693362270952971</v>
       </c>
       <c r="D2">
-        <v>-0.9630367811888042</v>
+        <v>-0.968881969168865</v>
       </c>
       <c r="E2">
         <v>-3.7303760553497414</v>
       </c>
       <c r="F2">
-        <v>-4.0158608784440561</v>
+        <v>-4.015860878471834</v>
       </c>
       <c r="G2">
-        <v>-3.938928416202776</v>
+        <v>-3.9389284162025597</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>-1.5908471147766343</v>
+        <v>-1.588501965407405</v>
       </c>
       <c r="B3">
         <v>-1.5886032352434194</v>
@@ -667,7 +667,7 @@
         <v>-1.5882507625600175</v>
       </c>
       <c r="D3">
-        <v>-1.5860068073634104</v>
+        <v>-1.5884404087565163</v>
       </c>
       <c r="E3">
         <v>-5.1604928659050904</v>
@@ -676,12 +676,12 @@
         <v>-5.483114463207909</v>
       </c>
       <c r="G3">
-        <v>-5.4262576904402344</v>
+        <v>-5.426257690468005</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>-2.2074923612876871</v>
+        <v>-2.2064359536994145</v>
       </c>
       <c r="B4">
         <v>-2.2075468084649867</v>
@@ -690,21 +690,21 @@
         <v>-2.2053685501607685</v>
       </c>
       <c r="D4">
-        <v>-2.2054231688924015</v>
+        <v>-2.206431207432257</v>
       </c>
       <c r="E4">
-        <v>-6.4655498524640871</v>
+        <v>-6.465549852464087</v>
       </c>
       <c r="F4">
-        <v>-6.7994988885196097</v>
+        <v>-6.79949876966008</v>
       </c>
       <c r="G4">
-        <v>-6.7735352124646182</v>
+        <v>-6.773535212038674</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>-2.8155423393030969</v>
+        <v>-2.818191297625178</v>
       </c>
       <c r="B5">
         <v>-2.8194972290851137</v>
@@ -713,7 +713,7 @@
         <v>-2.8138335411240063</v>
       </c>
       <c r="D5">
-        <v>-2.8177757489580717</v>
+        <v>-2.818190305808118</v>
       </c>
       <c r="E5">
         <v>-7.7267119902410695</v>
@@ -722,7 +722,7 @@
         <v>-8.0190583669681281</v>
       </c>
       <c r="G5">
-        <v>-8.0081487347447968</v>
+        <v>-8.00814872766379</v>
       </c>
     </row>
   </sheetData>
@@ -781,7 +781,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>-0.88830930908695649</v>
+        <v>-0.8849466537204024</v>
       </c>
       <c r="B2">
         <v>-0.88566091610472375</v>
@@ -790,21 +790,21 @@
         <v>-0.88532494543945339</v>
       </c>
       <c r="D2">
-        <v>-0.8824823523047459</v>
+        <v>-0.8842785314599726</v>
       </c>
       <c r="E2">
         <v>-2.7089664411531134</v>
       </c>
       <c r="F2">
-        <v>-2.7136399866600072</v>
+        <v>-2.7136399866608976</v>
       </c>
       <c r="G2">
-        <v>-2.7142284910745813</v>
+        <v>-2.7142284910745773</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-1.4971945545282224</v>
+        <v>-1.494169318842002</v>
       </c>
       <c r="B3">
         <v>-1.4962421925021978</v>
@@ -813,7 +813,7 @@
         <v>-1.4940190144036098</v>
       </c>
       <c r="D3">
-        <v>-1.492912978383323</v>
+        <v>-1.4934340917228965</v>
       </c>
       <c r="E3">
         <v>-3.6854548961231886</v>
@@ -822,12 +822,12 @@
         <v>-3.6973027702009844</v>
       </c>
       <c r="G3">
-        <v>-3.6957147695477137</v>
+        <v>-3.6957147695477635</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-2.1374339732033558</v>
+        <v>-2.1309184008396564</v>
       </c>
       <c r="B4">
         <v>-2.1374777007644559</v>
@@ -836,21 +836,21 @@
         <v>-2.1305369567434682</v>
       </c>
       <c r="D4">
-        <v>-2.1305803317901666</v>
+        <v>-2.130780792339547</v>
       </c>
       <c r="E4">
-        <v>-4.7128386035000904</v>
+        <v>-4.71283860350009</v>
       </c>
       <c r="F4">
-        <v>-4.7215812349262878</v>
+        <v>-4.72158123483694</v>
       </c>
       <c r="G4">
-        <v>-4.7203781841212722</v>
+        <v>-4.720378184121092</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-2.7737761319470167</v>
+        <v>-2.7685479843796084</v>
       </c>
       <c r="B5">
         <v>-2.7749135628655002</v>
@@ -859,7 +859,7 @@
         <v>-2.767279084969235</v>
       </c>
       <c r="D5">
-        <v>-2.7684332649107781</v>
+        <v>-2.7685394846865243</v>
       </c>
       <c r="E5">
         <v>-5.7432958825054463</v>
@@ -868,7 +868,7 @@
         <v>-5.7618456858294769</v>
       </c>
       <c r="G5">
-        <v>-5.7611574204571907</v>
+        <v>-5.761157420455947</v>
       </c>
     </row>
   </sheetData>
@@ -924,7 +924,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>-0.805679965236614</v>
+        <v>-0.8016945294441298</v>
       </c>
       <c r="B2">
         <v>-0.80230053052383854</v>
@@ -933,16 +933,16 @@
         <v>-0.8021849825207843</v>
       </c>
       <c r="D2">
-        <v>-0.7984566863334674</v>
+        <v>-0.7995930536071397</v>
       </c>
       <c r="E2">
         <v>-1.2887962439283438</v>
       </c>
       <c r="F2">
-        <v>-1.2885723672105684</v>
+        <v>-1.288572367210558</v>
       </c>
       <c r="G2">
-        <v>-1.2895118578513782</v>
+        <v>-1.2895118578513802</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -950,7 +950,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-1.1449595508921435</v>
+        <v>-1.1401324317346404</v>
       </c>
       <c r="B3">
         <v>-1.1437356466805673</v>
@@ -959,7 +959,7 @@
         <v>-1.1399142370233146</v>
       </c>
       <c r="D3">
-        <v>-1.1383626661221047</v>
+        <v>-1.1383510114279412</v>
       </c>
       <c r="E3">
         <v>-1.8489394386632905</v>
@@ -968,7 +968,7 @@
         <v>-1.849038743897343</v>
       </c>
       <c r="G3">
-        <v>-1.8491758677230481</v>
+        <v>-1.8491758677230388</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -976,7 +976,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-1.5455857150358956</v>
+        <v>-1.5287156665828163</v>
       </c>
       <c r="B4">
         <v>-1.5455902782501769</v>
@@ -985,16 +985,16 @@
         <v>-1.5283473460783625</v>
       </c>
       <c r="D4">
-        <v>-1.528354396752917</v>
+        <v>-1.5282256411956523</v>
       </c>
       <c r="E4">
         <v>-2.4346230825355306</v>
       </c>
       <c r="F4">
-        <v>-2.4346780286322556</v>
+        <v>-2.434678028637748</v>
       </c>
       <c r="G4">
-        <v>-2.4346992157945411</v>
+        <v>-2.434699215794569</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-1.9739024758337695</v>
+        <v>-1.9504207740695625</v>
       </c>
       <c r="B5">
         <v>-1.9741224772390944</v>
@@ -1011,7 +1011,7 @@
         <v>-1.9499601413145031</v>
       </c>
       <c r="D5">
-        <v>-1.9503492987954727</v>
+        <v>-1.9503782959570406</v>
       </c>
       <c r="E5">
         <v>-3.0295838857986572</v>
@@ -1020,7 +1020,7 @@
         <v>-3.0296923139953158</v>
       </c>
       <c r="G5">
-        <v>-3.0296961210707498</v>
+        <v>-3.029696121070864</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>6.2181354315879671E-2</v>
+        <v>0.06503302035359826</v>
       </c>
       <c r="B2">
         <v>6.6252481636634539E-2</v>
@@ -1087,16 +1087,16 @@
         <v>6.456496771869101E-2</v>
       </c>
       <c r="D2">
-        <v>0.0692289775321616</v>
+        <v>0.06852569947379147</v>
       </c>
       <c r="E2">
         <v>-0.98670329049201677</v>
       </c>
       <c r="F2">
-        <v>-0.98226359175649736</v>
+        <v>-0.9822635917573398</v>
       </c>
       <c r="G2">
-        <v>-0.98989377511579235</v>
+        <v>-0.9898937751157924</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>0.10526553068409075</v>
+        <v>0.10810561038687856</v>
       </c>
       <c r="B3">
         <v>0.10694960583246875</v>
@@ -1113,7 +1113,7 @@
         <v>0.10838702558236737</v>
       </c>
       <c r="D3">
-        <v>0.11057027155711313</v>
+        <v>0.1107985113481636</v>
       </c>
       <c r="E3">
         <v>-1.4453625171745093</v>
@@ -1122,7 +1122,7 @@
         <v>-1.4423480326370464</v>
       </c>
       <c r="G3">
-        <v>-1.4461975308779023</v>
+        <v>-1.4461975308779031</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>1.9712078988016673E-2</v>
+        <v>0.03932038366200697</v>
       </c>
       <c r="B4">
         <v>1.9701226187833272E-2</v>
@@ -1139,16 +1139,16 @@
         <v>3.9816859246365376E-2</v>
       </c>
       <c r="D4">
-        <v>0.039805087185799046</v>
+        <v>0.040056022078239266</v>
       </c>
       <c r="E4">
         <v>-1.9064207794460453</v>
       </c>
       <c r="F4">
-        <v>-1.9049089756857867</v>
+        <v>-1.904908975673032</v>
       </c>
       <c r="G4">
-        <v>-1.9067993679376984</v>
+        <v>-1.9067993679377042</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-0.10016773269147423</v>
+        <v>-0.07223823954064279</v>
       </c>
       <c r="B5">
         <v>-0.10045855546081878</v>
@@ -1165,7 +1165,7 @@
         <v>-7.1646822786570294E-2</v>
       </c>
       <c r="D5">
-        <v>-7.2151923200502024E-2</v>
+        <v>-0.07218510621155491</v>
       </c>
       <c r="E5">
         <v>-2.3622701459126145</v>
@@ -1174,7 +1174,7 @@
         <v>-2.363591883599276</v>
       </c>
       <c r="G5">
-        <v>-2.3645057335809945</v>
+        <v>-2.364505733580911</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
